--- a/biology/Zoologie/Eirenis_barani/Eirenis_barani.xlsx
+++ b/biology/Zoologie/Eirenis_barani/Eirenis_barani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis barani est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis barani est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Eirenis barani barani Schmidtler, 1988
 Eirenis barani bischofforum Schmidtler, 1997</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'herpétologiste turc İbrahim Baran[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'herpétologiste turc İbrahim Baran.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidtler, 1988 : Eirenis barani n.sp. aus dem mediterranen Süden der Türkei. Salamandra, vol. 24, no 4, p. 203-214.
 Schmidtler, 1997 : Die Zwergnattern (Eirenis modestus-Komplex) des Antitaurus in Süd-Anatolien und ihre geographischen Beziehungen zur begleitenden Herpetofauna. Salamandra, vol. 33, no 1, p. 33-60.</t>
